--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1586316.447068331</v>
+        <v>1584582.965954689</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.21222871</v>
+        <v>6049179.212228708</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,16 +1370,16 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>136.8253159914467</v>
       </c>
       <c r="G11" t="n">
         <v>333.0902356170842</v>
@@ -1388,7 +1388,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T11" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U11" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V11" t="n">
-        <v>196.6573916860129</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>87.10197242276038</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>68.01385433753184</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8553954612995</v>
+        <v>56.4241842341925</v>
       </c>
       <c r="H12" t="n">
-        <v>18.43211025672109</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I12" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S12" t="n">
         <v>144.0419631757947</v>
@@ -1503,19 +1503,19 @@
         <v>194.1665539401884</v>
       </c>
       <c r="U12" t="n">
-        <v>199.9943899252603</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>206.9514977372573</v>
       </c>
       <c r="W12" t="n">
-        <v>172.2637719338127</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>126.2514845501974</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152092</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110544</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946226</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582433</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571736</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278249</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234364</v>
+        <v>38.5007924223436</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089785</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1585,16 +1585,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V13" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W13" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X13" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
         <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048558</v>
+        <v>222.9695876979778</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>46.02987723656445</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.6919384270541</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X14" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>105.5890620776372</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>56.42418423419254</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H15" t="n">
         <v>97.863321483828</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868778</v>
       </c>
       <c r="T15" t="n">
-        <v>114.7353427130815</v>
+        <v>176.0812161707751</v>
       </c>
       <c r="U15" t="n">
-        <v>225.843479337428</v>
+        <v>146.4122681103211</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>153.3693759223183</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152092</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110544</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946226</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582433</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571736</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278249</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234364</v>
+        <v>38.5007924223436</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089785</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1822,16 +1822,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V16" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W16" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X16" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>248.0136232874976</v>
       </c>
       <c r="G17" t="n">
-        <v>73.76070174028857</v>
+        <v>73.76070174028681</v>
       </c>
       <c r="H17" t="n">
         <v>152.1284865777488</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786045</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U17" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V17" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W17" t="n">
-        <v>190.3785462631991</v>
+        <v>190.3785462631992</v>
       </c>
       <c r="X17" t="n">
-        <v>210.8686782242551</v>
+        <v>210.8686782242552</v>
       </c>
       <c r="Y17" t="n">
         <v>227.3755162018397</v>
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>49.92851656811867</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8553954612995</v>
+        <v>23.51838718635978</v>
       </c>
       <c r="H18" t="n">
         <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>194.1665539401884</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>46.91056274926359</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.08939097628112</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>8.384398644413977</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7433881128243</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.41206269292846</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362939</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U19" t="n">
-        <v>127.3885564706969</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961412</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W19" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482327</v>
+        <v>128.6945364777052</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167937</v>
+        <v>26.51214666710369</v>
       </c>
       <c r="D20" t="n">
         <v>195.8206191664691</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786045</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U20" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3785462631991</v>
+        <v>190.3785462631992</v>
       </c>
       <c r="X20" t="n">
-        <v>199.8601915904871</v>
+        <v>210.8686782242552</v>
       </c>
       <c r="Y20" t="n">
         <v>227.3755162018397</v>
@@ -2163,22 +2163,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>126.2348763483621</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1665539401884</v>
+        <v>81.82954566524894</v>
       </c>
       <c r="U21" t="n">
         <v>225.843479337428</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C22" t="n">
-        <v>62.50423189297161</v>
+        <v>8.384398644413977</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.41206269292846</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362939</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U22" t="n">
-        <v>127.3885564706969</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961412</v>
+        <v>147.3950541181717</v>
       </c>
       <c r="W22" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482327</v>
+        <v>66.8472329348233</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="23">
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786045</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U23" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V23" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3785462631991</v>
+        <v>190.3785462631992</v>
       </c>
       <c r="X23" t="n">
-        <v>210.8686782242551</v>
+        <v>210.8686782242552</v>
       </c>
       <c r="Y23" t="n">
         <v>227.3755162018397</v>
@@ -2397,7 +2397,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>88.46409854451578</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2415,7 +2415,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I24" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S24" t="n">
         <v>144.0419631757947</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1665539401884</v>
+        <v>109.9221534963895</v>
       </c>
       <c r="U24" t="n">
         <v>225.843479337428</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772341</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644413949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>54.11983324855768</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7433881128243</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>79.98966748748479</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292846</v>
+        <v>43.41206269292848</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362939</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2509789249108</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W25" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482327</v>
+        <v>66.8472329348233</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788091</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E26" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F26" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G26" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173333</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500379</v>
       </c>
       <c r="T26" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U26" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V26" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W26" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X26" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152092</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110544</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946219</v>
+        <v>67.00275141946226</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582426</v>
+        <v>65.98983679582433</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571736</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278241</v>
+        <v>71.70374093278249</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234358</v>
+        <v>38.50079242234364</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089784</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W28" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E29" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F29" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G29" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H29" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173333</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="T29" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U29" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V29" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W29" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X29" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I30" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946219</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582426</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571782</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278241</v>
+        <v>71.70374093278245</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234357</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089781</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
@@ -3007,16 +3007,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V31" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W31" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X31" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3035,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E32" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F32" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G32" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H32" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173333</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="T32" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U32" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V32" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W32" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X32" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I33" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D34" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946219</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F34" t="n">
-        <v>65.98983679582426</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234357</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089781</v>
       </c>
       <c r="S34" t="n">
         <v>122.8432739200354</v>
@@ -3241,19 +3241,19 @@
         <v>143.1837610607363</v>
       </c>
       <c r="U34" t="n">
-        <v>206.8197676978038</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V34" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W34" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X34" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C35" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E35" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F35" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H35" t="n">
         <v>165.349500609852</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U35" t="n">
         <v>105.4817412320503</v>
@@ -3363,7 +3363,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I36" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C37" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D37" t="n">
-        <v>2.974064596101641</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E37" t="n">
-        <v>98.74653511206563</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778689</v>
+        <v>5.493543737778715</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.63307672503163</v>
+        <v>56.63307672503165</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6149722878433</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U37" t="n">
         <v>140.6095705028001</v>
@@ -3487,10 +3487,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X37" t="n">
-        <v>80.06824696692644</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>170.8972258175911</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E38" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H38" t="n">
         <v>165.349500609852</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U38" t="n">
         <v>105.4817412320503</v>
@@ -3600,7 +3600,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I39" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D40" t="n">
-        <v>2.974064596101641</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584562</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778689</v>
+        <v>5.493543737778715</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503165</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U40" t="n">
-        <v>238.5635513904074</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V40" t="n">
-        <v>106.4962349017173</v>
+        <v>204.4502157893241</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692644</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.94324492998408</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C41" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E41" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F41" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G41" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H41" t="n">
         <v>165.349500609852</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U41" t="n">
         <v>105.4817412320503</v>
@@ -3837,7 +3837,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I42" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C43" t="n">
-        <v>21.60541267651712</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>2.974064596101641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244584562</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778689</v>
+        <v>5.493543737778715</v>
       </c>
       <c r="I43" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503163</v>
+        <v>56.63307672503165</v>
       </c>
       <c r="T43" t="n">
-        <v>76.97356386573256</v>
+        <v>174.9275447533394</v>
       </c>
       <c r="U43" t="n">
         <v>140.6095705028001</v>
@@ -3961,10 +3961,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X43" t="n">
-        <v>200.5771535768787</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.94324492998408</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C44" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D44" t="n">
-        <v>209.041633198573</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E44" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F44" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G44" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H44" t="n">
         <v>165.349500609852</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U44" t="n">
         <v>105.4817412320503</v>
@@ -4074,7 +4074,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I45" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C46" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D46" t="n">
-        <v>2.974064596101641</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E46" t="n">
-        <v>98.96689551124535</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778689</v>
+        <v>127.8917807694915</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503163</v>
+        <v>56.63307672503165</v>
       </c>
       <c r="T46" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U46" t="n">
-        <v>140.6095705028001</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>106.4962349017173</v>
       </c>
       <c r="W46" t="n">
         <v>140.8815899144803</v>
       </c>
       <c r="X46" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.94324492998408</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
   </sheetData>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1183.804033634932</v>
+        <v>779.309866772006</v>
       </c>
       <c r="C11" t="n">
-        <v>895.0750633885677</v>
+        <v>779.309866772006</v>
       </c>
       <c r="D11" t="n">
-        <v>617.0429114758647</v>
+        <v>779.309866772006</v>
       </c>
       <c r="E11" t="n">
-        <v>617.0429114758647</v>
+        <v>779.309866772006</v>
       </c>
       <c r="F11" t="n">
-        <v>617.0429114758647</v>
+        <v>641.1024768816558</v>
       </c>
       <c r="G11" t="n">
-        <v>280.5881280242645</v>
+        <v>304.6476934300556</v>
       </c>
       <c r="H11" t="n">
-        <v>46.68944337289496</v>
+        <v>70.7490087786862</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J11" t="n">
-        <v>101.1519812836721</v>
+        <v>130.5136217217799</v>
       </c>
       <c r="K11" t="n">
-        <v>554.4196843468364</v>
+        <v>262.8773663394913</v>
       </c>
       <c r="L11" t="n">
-        <v>755.5303758059823</v>
+        <v>463.9880577986373</v>
       </c>
       <c r="M11" t="n">
-        <v>1333.312237545557</v>
+        <v>719.4318893727756</v>
       </c>
       <c r="N11" t="n">
-        <v>1597.503225751702</v>
+        <v>983.6228775789201</v>
       </c>
       <c r="O11" t="n">
-        <v>1879.985460408264</v>
+        <v>1561.404739318495</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.018338954671</v>
+        <v>2047.01833895467</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S11" t="n">
         <v>2267.593181579087</v>
@@ -5075,16 +5075,16 @@
         <v>1961.349265566944</v>
       </c>
       <c r="V11" t="n">
-        <v>1762.705435581073</v>
+        <v>1961.349265566944</v>
       </c>
       <c r="W11" t="n">
-        <v>1490.170327005006</v>
+        <v>1688.814156990877</v>
       </c>
       <c r="X11" t="n">
-        <v>1490.170327005006</v>
+        <v>1395.581945423845</v>
       </c>
       <c r="Y11" t="n">
-        <v>1490.170327005006</v>
+        <v>1085.676160142081</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>790.0076409701163</v>
+        <v>870.2411876641635</v>
       </c>
       <c r="C12" t="n">
-        <v>615.5546116889893</v>
+        <v>695.7881583830365</v>
       </c>
       <c r="D12" t="n">
-        <v>546.8537487217855</v>
+        <v>546.8537487217852</v>
       </c>
       <c r="E12" t="n">
-        <v>387.6162937163299</v>
+        <v>387.6162937163298</v>
       </c>
       <c r="F12" t="n">
         <v>241.0817357432148</v>
       </c>
       <c r="G12" t="n">
-        <v>103.8540635600841</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H12" t="n">
-        <v>85.23577037147689</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J12" t="n">
-        <v>60.3091108898245</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K12" t="n">
-        <v>423.5627013523597</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L12" t="n">
-        <v>606.2744364430106</v>
+        <v>1098.23650328044</v>
       </c>
       <c r="M12" t="n">
-        <v>990.1096121032386</v>
+        <v>1330.809348347706</v>
       </c>
       <c r="N12" t="n">
-        <v>1243.246613253083</v>
+        <v>1583.94634949755</v>
       </c>
       <c r="O12" t="n">
-        <v>1821.028474992658</v>
+        <v>1793.297456023601</v>
       </c>
       <c r="P12" t="n">
-        <v>2284.996269409652</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R12" t="n">
         <v>2326.629995268228</v>
@@ -5148,22 +5148,22 @@
         <v>2181.133062767425</v>
       </c>
       <c r="T12" t="n">
-        <v>1985.005230504609</v>
+        <v>1985.005230504608</v>
       </c>
       <c r="U12" t="n">
-        <v>1782.990695226568</v>
+        <v>1756.880503901145</v>
       </c>
       <c r="V12" t="n">
         <v>1547.838586994825</v>
       </c>
       <c r="W12" t="n">
-        <v>1373.834776960671</v>
+        <v>1293.601230266623</v>
       </c>
       <c r="X12" t="n">
-        <v>1165.983276755138</v>
+        <v>1085.749730061091</v>
       </c>
       <c r="Y12" t="n">
-        <v>958.2229779901843</v>
+        <v>958.2229779901841</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433556</v>
+        <v>539.1229485433557</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094961</v>
+        <v>450.4203123094962</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912078</v>
+        <v>380.537219591208</v>
       </c>
       <c r="E13" t="n">
-        <v>312.857672702862</v>
+        <v>312.8576727028623</v>
       </c>
       <c r="F13" t="n">
-        <v>246.201271898999</v>
+        <v>246.2012718989994</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326179</v>
+        <v>158.0071538326182</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839359</v>
+        <v>85.57913268839354</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J13" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080079</v>
+        <v>320.3114555080081</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105128</v>
+        <v>609.8904447105131</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538483</v>
+        <v>921.3253246538486</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
@@ -5218,13 +5218,13 @@
         <v>1735.537777472236</v>
       </c>
       <c r="Q13" t="n">
-        <v>1832.298320439746</v>
+        <v>1832.298320439747</v>
       </c>
       <c r="R13" t="n">
         <v>1790.110501196415</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.026386125672</v>
+        <v>1666.026386125673</v>
       </c>
       <c r="T13" t="n">
         <v>1521.396324448161</v>
@@ -5236,10 +5236,10 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330007</v>
+        <v>928.8529033330005</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290307</v>
+        <v>781.0968991290306</v>
       </c>
       <c r="Y13" t="n">
         <v>640.537866679548</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1260.58380522358</v>
+        <v>1504.741426049083</v>
       </c>
       <c r="C14" t="n">
-        <v>971.8548349772161</v>
+        <v>1216.012455802719</v>
       </c>
       <c r="D14" t="n">
-        <v>971.8548349772161</v>
+        <v>937.9803038900159</v>
       </c>
       <c r="E14" t="n">
-        <v>971.8548349772161</v>
+        <v>632.4255979858194</v>
       </c>
       <c r="F14" t="n">
-        <v>641.102476881656</v>
+        <v>632.4255979858194</v>
       </c>
       <c r="G14" t="n">
-        <v>304.6476934300558</v>
+        <v>295.9708145342191</v>
       </c>
       <c r="H14" t="n">
-        <v>70.74900877868629</v>
+        <v>70.7490087786862</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J14" t="n">
-        <v>101.1519812836721</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K14" t="n">
-        <v>233.5157259013834</v>
+        <v>579.9337098920172</v>
       </c>
       <c r="L14" t="n">
-        <v>458.7063711857272</v>
+        <v>781.0444013511632</v>
       </c>
       <c r="M14" t="n">
-        <v>1036.488232925302</v>
+        <v>1036.488232925301</v>
       </c>
       <c r="N14" t="n">
-        <v>1300.679221131447</v>
+        <v>1300.679221131446</v>
       </c>
       <c r="O14" t="n">
-        <v>1536.81201847264</v>
+        <v>1536.812018472639</v>
       </c>
       <c r="P14" t="n">
-        <v>2022.425618108815</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q14" t="n">
-        <v>2309.879447798892</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S14" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T14" t="n">
-        <v>2287.977343153269</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="U14" t="n">
-        <v>2114.5511427219</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="V14" t="n">
-        <v>1863.721802072377</v>
+        <v>2083.642827995224</v>
       </c>
       <c r="W14" t="n">
-        <v>1863.721802072377</v>
+        <v>1811.107719419158</v>
       </c>
       <c r="X14" t="n">
-        <v>1570.489590505345</v>
+        <v>1811.107719419158</v>
       </c>
       <c r="Y14" t="n">
-        <v>1260.58380522358</v>
+        <v>1811.107719419158</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>763.8974496446942</v>
+        <v>950.4747343582111</v>
       </c>
       <c r="C15" t="n">
-        <v>657.2418313844546</v>
+        <v>776.0217050770841</v>
       </c>
       <c r="D15" t="n">
-        <v>508.3074217232034</v>
+        <v>627.0872954158328</v>
       </c>
       <c r="E15" t="n">
-        <v>349.0699667177479</v>
+        <v>467.8498404103773</v>
       </c>
       <c r="F15" t="n">
-        <v>202.5354087446329</v>
+        <v>321.3152824372622</v>
       </c>
       <c r="G15" t="n">
-        <v>145.5412832555495</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289496</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J15" t="n">
-        <v>60.3091108898245</v>
+        <v>60.30911088982451</v>
       </c>
       <c r="K15" t="n">
-        <v>423.5627013523597</v>
+        <v>161.742116709907</v>
       </c>
       <c r="L15" t="n">
-        <v>606.2744364430106</v>
+        <v>412.3277503636633</v>
       </c>
       <c r="M15" t="n">
-        <v>1184.056298182586</v>
+        <v>990.1096121032383</v>
       </c>
       <c r="N15" t="n">
-        <v>1437.19329933243</v>
+        <v>1243.246613253083</v>
       </c>
       <c r="O15" t="n">
-        <v>2014.975161072005</v>
+        <v>1821.028474992657</v>
       </c>
       <c r="P15" t="n">
         <v>2284.996269409652</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R15" t="n">
-        <v>2326.629995268228</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S15" t="n">
-        <v>2181.133062767425</v>
+        <v>2269.208782837992</v>
       </c>
       <c r="T15" t="n">
-        <v>2065.238777198656</v>
+        <v>2091.348968524078</v>
       </c>
       <c r="U15" t="n">
-        <v>1837.114050595193</v>
+        <v>1943.457788614663</v>
       </c>
       <c r="V15" t="n">
-        <v>1601.961942363451</v>
+        <v>1788.539227076967</v>
       </c>
       <c r="W15" t="n">
-        <v>1347.724585635249</v>
+        <v>1534.301870348766</v>
       </c>
       <c r="X15" t="n">
-        <v>1139.873085429716</v>
+        <v>1326.450370143233</v>
       </c>
       <c r="Y15" t="n">
-        <v>932.1127866647623</v>
+        <v>1118.690071378279</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433561</v>
+        <v>539.1229485433564</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094965</v>
+        <v>450.4203123094969</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912082</v>
+        <v>380.5372195912086</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028625</v>
+        <v>312.8576727028629</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989995</v>
+        <v>246.201271899</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326183</v>
+        <v>158.0071538326184</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839359</v>
+        <v>85.57913268839354</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279187</v>
+        <v>120.2234082279186</v>
       </c>
       <c r="K16" t="n">
         <v>320.311455508008</v>
       </c>
       <c r="L16" t="n">
-        <v>609.8904447105128</v>
+        <v>609.890444710513</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538484</v>
+        <v>921.3253246538485</v>
       </c>
       <c r="N16" t="n">
         <v>1232.659405364007</v>
@@ -5470,16 +5470,16 @@
         <v>1312.487468187754</v>
       </c>
       <c r="V16" t="n">
-        <v>1138.036526675914</v>
+        <v>1138.036526675915</v>
       </c>
       <c r="W16" t="n">
-        <v>928.852903333001</v>
+        <v>928.8529033330013</v>
       </c>
       <c r="X16" t="n">
-        <v>781.096899129031</v>
+        <v>781.0968991290313</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795484</v>
+        <v>640.5378666795486</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1156.994340046476</v>
+        <v>1156.994340046475</v>
       </c>
       <c r="C17" t="n">
-        <v>948.4989164941588</v>
+        <v>948.4989164941583</v>
       </c>
       <c r="D17" t="n">
-        <v>750.7003112755032</v>
+        <v>750.7003112755027</v>
       </c>
       <c r="E17" t="n">
-        <v>525.3791520653538</v>
+        <v>525.3791520653533</v>
       </c>
       <c r="F17" t="n">
-        <v>274.860340663841</v>
+        <v>274.8603406638406</v>
       </c>
       <c r="G17" t="n">
-        <v>200.3545813302171</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J17" t="n">
-        <v>101.1519812836721</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K17" t="n">
-        <v>453.4663338032789</v>
+        <v>604.5264307378733</v>
       </c>
       <c r="L17" t="n">
-        <v>654.5770252624247</v>
+        <v>805.6371221970193</v>
       </c>
       <c r="M17" t="n">
-        <v>910.0208568365629</v>
+        <v>1061.080953771158</v>
       </c>
       <c r="N17" t="n">
-        <v>1487.802718576138</v>
+        <v>1325.271941977302</v>
       </c>
       <c r="O17" t="n">
-        <v>2065.584580315713</v>
+        <v>1561.404739318495</v>
       </c>
       <c r="P17" t="n">
-        <v>2232.61745886212</v>
+        <v>2047.01833895467</v>
       </c>
       <c r="Q17" t="n">
-        <v>2309.879447798892</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T17" t="n">
         <v>2281.88799975802</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.6953460207</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065224</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183205</v>
+        <v>1825.797990183204</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.79932531022</v>
+        <v>1612.799325310219</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722503</v>
+        <v>1383.127086722502</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>851.9731697152615</v>
+        <v>837.0030088279689</v>
       </c>
       <c r="C18" t="n">
-        <v>677.5201404341345</v>
+        <v>662.5499795468419</v>
       </c>
       <c r="D18" t="n">
-        <v>627.0872954158328</v>
+        <v>513.6155698855906</v>
       </c>
       <c r="E18" t="n">
-        <v>467.8498404103773</v>
+        <v>354.3781148801351</v>
       </c>
       <c r="F18" t="n">
-        <v>321.3152824372622</v>
+        <v>207.8435569070201</v>
       </c>
       <c r="G18" t="n">
         <v>184.0876102541314</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147689</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J18" t="n">
-        <v>60.3091108898245</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K18" t="n">
-        <v>161.7421167099069</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L18" t="n">
-        <v>344.4538518005578</v>
+        <v>1098.23650328044</v>
       </c>
       <c r="M18" t="n">
-        <v>665.4647515135077</v>
+        <v>1330.809348347706</v>
       </c>
       <c r="N18" t="n">
-        <v>1243.246613253083</v>
+        <v>1583.94634949755</v>
       </c>
       <c r="O18" t="n">
-        <v>1821.028474992658</v>
+        <v>1793.297456023601</v>
       </c>
       <c r="P18" t="n">
-        <v>2284.996269409652</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R18" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S18" t="n">
-        <v>2188.975236143945</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T18" t="n">
-        <v>1992.847403881128</v>
+        <v>2138.344336381931</v>
       </c>
       <c r="U18" t="n">
-        <v>1764.722677277666</v>
+        <v>1910.219609778468</v>
       </c>
       <c r="V18" t="n">
-        <v>1529.570569045923</v>
+        <v>1675.067501546725</v>
       </c>
       <c r="W18" t="n">
-        <v>1275.333212317722</v>
+        <v>1420.830144818524</v>
       </c>
       <c r="X18" t="n">
-        <v>1227.948805500283</v>
+        <v>1212.978644612991</v>
       </c>
       <c r="Y18" t="n">
-        <v>1020.18850673533</v>
+        <v>1005.218345848037</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>384.0532910612304</v>
+        <v>215.7806721233129</v>
       </c>
       <c r="C19" t="n">
-        <v>215.1171081333235</v>
+        <v>207.3115825835008</v>
       </c>
       <c r="D19" t="n">
-        <v>215.1171081333235</v>
+        <v>207.3115825835008</v>
       </c>
       <c r="E19" t="n">
-        <v>215.1171081333235</v>
+        <v>207.3115825835008</v>
       </c>
       <c r="F19" t="n">
-        <v>215.1171081333235</v>
+        <v>207.3115825835008</v>
       </c>
       <c r="G19" t="n">
-        <v>46.68944337289496</v>
+        <v>199.3510112111671</v>
       </c>
       <c r="H19" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381484</v>
@@ -5698,25 +5698,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.455493404177</v>
+        <v>1003.988400016082</v>
       </c>
       <c r="T19" t="n">
-        <v>1100.058978420713</v>
+        <v>779.1247916445229</v>
       </c>
       <c r="U19" t="n">
-        <v>971.3836688543522</v>
+        <v>650.4494820781623</v>
       </c>
       <c r="V19" t="n">
-        <v>877.1662740365601</v>
+        <v>556.2320872603702</v>
       </c>
       <c r="W19" t="n">
-        <v>748.2161973876944</v>
+        <v>427.2820106115045</v>
       </c>
       <c r="X19" t="n">
-        <v>680.6937398777718</v>
+        <v>297.2875293208931</v>
       </c>
       <c r="Y19" t="n">
-        <v>459.9011607342417</v>
+        <v>236.9620435654578</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1338.709817470405</v>
+        <v>1156.994340046475</v>
       </c>
       <c r="C20" t="n">
         <v>1130.214393918088</v>
       </c>
       <c r="D20" t="n">
-        <v>932.4157886994323</v>
+        <v>932.4157886994319</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892829</v>
+        <v>707.0946294892825</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877701</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G20" t="n">
         <v>200.354581330217</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J20" t="n">
-        <v>101.1519812836721</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K20" t="n">
-        <v>262.8773663394921</v>
+        <v>604.5264307378733</v>
       </c>
       <c r="L20" t="n">
-        <v>463.988057798638</v>
+        <v>805.6371221970193</v>
       </c>
       <c r="M20" t="n">
-        <v>719.4318893727761</v>
+        <v>1061.080953771158</v>
       </c>
       <c r="N20" t="n">
-        <v>983.6228775789207</v>
+        <v>1325.271941977302</v>
       </c>
       <c r="O20" t="n">
-        <v>1561.404739318496</v>
+        <v>1561.404739318495</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.018338954671</v>
+        <v>2047.01833895467</v>
       </c>
       <c r="Q20" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.88799975802</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.6953460207</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V20" t="n">
-        <v>2188.6953460207</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W20" t="n">
-        <v>1996.393784138681</v>
+        <v>1825.797990183204</v>
       </c>
       <c r="X20" t="n">
-        <v>1794.514802734148</v>
+        <v>1612.799325310219</v>
       </c>
       <c r="Y20" t="n">
-        <v>1564.842564146432</v>
+        <v>1383.127086722502</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>683.6639029506468</v>
+        <v>950.4747343582111</v>
       </c>
       <c r="C21" t="n">
-        <v>509.2108736695199</v>
+        <v>776.0217050770841</v>
       </c>
       <c r="D21" t="n">
-        <v>509.2108736695199</v>
+        <v>627.0872954158328</v>
       </c>
       <c r="E21" t="n">
-        <v>349.9734186640644</v>
+        <v>467.8498404103773</v>
       </c>
       <c r="F21" t="n">
-        <v>222.4634425546077</v>
+        <v>321.3152824372622</v>
       </c>
       <c r="G21" t="n">
-        <v>85.23577037147689</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147689</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J21" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K21" t="n">
-        <v>548.3928263393643</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L21" t="n">
-        <v>731.1045614300152</v>
+        <v>731.1045614300155</v>
       </c>
       <c r="M21" t="n">
-        <v>1308.88642316959</v>
+        <v>963.6774064972809</v>
       </c>
       <c r="N21" t="n">
-        <v>1562.023424319434</v>
+        <v>1216.814407647125</v>
       </c>
       <c r="O21" t="n">
-        <v>1928.330101087705</v>
+        <v>1613.051960134167</v>
       </c>
       <c r="P21" t="n">
         <v>2077.019754551161</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644748</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268228</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S21" t="n">
-        <v>2181.133062767425</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T21" t="n">
-        <v>1985.005230504609</v>
+        <v>2251.816061912173</v>
       </c>
       <c r="U21" t="n">
-        <v>1756.880503901146</v>
+        <v>2023.69133530871</v>
       </c>
       <c r="V21" t="n">
-        <v>1521.728395669403</v>
+        <v>1788.539227076967</v>
       </c>
       <c r="W21" t="n">
-        <v>1267.491038941202</v>
+        <v>1534.301870348766</v>
       </c>
       <c r="X21" t="n">
-        <v>1059.639538735669</v>
+        <v>1326.450370143233</v>
       </c>
       <c r="Y21" t="n">
-        <v>851.8792399707149</v>
+        <v>1118.690071378279</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>278.2526959040019</v>
+        <v>223.5861976731356</v>
       </c>
       <c r="C22" t="n">
         <v>215.1171081333235</v>
@@ -5899,16 +5899,16 @@
         <v>215.1171081333235</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289496</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381484</v>
@@ -5935,25 +5935,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.455493404177</v>
+        <v>1003.988400016082</v>
       </c>
       <c r="T22" t="n">
-        <v>1100.058978420713</v>
+        <v>779.1247916445229</v>
       </c>
       <c r="U22" t="n">
-        <v>971.3836688543522</v>
+        <v>650.4494820781623</v>
       </c>
       <c r="V22" t="n">
-        <v>877.1662740365601</v>
+        <v>501.5655890295041</v>
       </c>
       <c r="W22" t="n">
-        <v>748.2161973876944</v>
+        <v>372.6155123806383</v>
       </c>
       <c r="X22" t="n">
-        <v>680.6937398777718</v>
+        <v>305.0930548707158</v>
       </c>
       <c r="Y22" t="n">
-        <v>459.9011607342417</v>
+        <v>244.7675691152805</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305321</v>
+        <v>936.1242678305327</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203828</v>
+        <v>710.8031086203835</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188703</v>
+        <v>460.2842972188705</v>
       </c>
       <c r="G23" t="n">
         <v>204.0630604613176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J23" t="n">
         <v>272.2661094351257</v>
       </c>
       <c r="K23" t="n">
-        <v>404.629854052837</v>
+        <v>725.5338124982902</v>
       </c>
       <c r="L23" t="n">
-        <v>622.8306193392423</v>
+        <v>926.6445039574362</v>
       </c>
       <c r="M23" t="n">
-        <v>1246.504910326187</v>
+        <v>1182.088335531575</v>
       </c>
       <c r="N23" t="n">
-        <v>1510.695898532332</v>
+        <v>1446.279323737719</v>
       </c>
       <c r="O23" t="n">
-        <v>1746.828695873524</v>
+        <v>1746.828695873525</v>
       </c>
       <c r="P23" t="n">
-        <v>2232.442295509699</v>
+        <v>2232.4422955097</v>
       </c>
       <c r="Q23" t="n">
         <v>2519.896125199777</v>
@@ -6020,16 +6020,16 @@
         <v>2467.311956313049</v>
       </c>
       <c r="U23" t="n">
-        <v>2374.119302575728</v>
+        <v>2374.119302575729</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.523508620252</v>
+        <v>2203.523508620253</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.221946738233</v>
+        <v>2011.221946738234</v>
       </c>
       <c r="X23" t="n">
-        <v>1798.223281865248</v>
+        <v>1798.223281865249</v>
       </c>
       <c r="Y23" t="n">
         <v>1568.551043277532</v>
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>869.0878595056754</v>
+        <v>954.1832134893117</v>
       </c>
       <c r="C24" t="n">
         <v>779.7301842081847</v>
@@ -6063,28 +6063,28 @@
         <v>88.94424950257746</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J24" t="n">
-        <v>64.01759002092507</v>
+        <v>167.5259423088867</v>
       </c>
       <c r="K24" t="n">
-        <v>427.2711804834602</v>
+        <v>530.7795327714219</v>
       </c>
       <c r="L24" t="n">
-        <v>609.9829155741111</v>
+        <v>713.4912678620728</v>
       </c>
       <c r="M24" t="n">
-        <v>1098.781478904266</v>
+        <v>946.0641129293383</v>
       </c>
       <c r="N24" t="n">
-        <v>1722.455769891211</v>
+        <v>1199.201114079183</v>
       </c>
       <c r="O24" t="n">
-        <v>2321.730572501225</v>
+        <v>1798.475916689197</v>
       </c>
       <c r="P24" t="n">
-        <v>2470.420225964681</v>
+        <v>2262.443711106191</v>
       </c>
       <c r="Q24" t="n">
         <v>2519.896125199777</v>
@@ -6096,22 +6096,22 @@
         <v>2366.557019322454</v>
       </c>
       <c r="T24" t="n">
-        <v>2170.429187059637</v>
+        <v>2255.524541043273</v>
       </c>
       <c r="U24" t="n">
-        <v>1942.304460456174</v>
+        <v>2027.399814439811</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.152352224432</v>
+        <v>1792.247706208068</v>
       </c>
       <c r="W24" t="n">
-        <v>1452.91499549623</v>
+        <v>1538.010349479866</v>
       </c>
       <c r="X24" t="n">
-        <v>1245.063495290697</v>
+        <v>1330.158849274334</v>
       </c>
       <c r="Y24" t="n">
-        <v>1037.303196525743</v>
+        <v>1122.39855050938</v>
       </c>
     </row>
     <row r="25">
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>281.9611750351025</v>
+        <v>602.895361811292</v>
       </c>
       <c r="C25" t="n">
-        <v>273.4920854952904</v>
+        <v>433.9591788833851</v>
       </c>
       <c r="D25" t="n">
-        <v>273.4920854952904</v>
+        <v>433.9591788833851</v>
       </c>
       <c r="E25" t="n">
-        <v>218.8255872644241</v>
+        <v>286.046085300992</v>
       </c>
       <c r="F25" t="n">
-        <v>218.8255872644241</v>
+        <v>139.1561378030816</v>
       </c>
       <c r="G25" t="n">
-        <v>50.39792250399553</v>
+        <v>131.1955664307479</v>
       </c>
       <c r="H25" t="n">
-        <v>50.39792250399553</v>
+        <v>131.1955664307479</v>
       </c>
       <c r="I25" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399553</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="K25" t="n">
-        <v>171.8490706692489</v>
+        <v>171.849070669249</v>
       </c>
       <c r="L25" t="n">
-        <v>382.791160756918</v>
+        <v>382.7911607569181</v>
       </c>
       <c r="M25" t="n">
-        <v>615.5891415854176</v>
+        <v>615.5891415854178</v>
       </c>
       <c r="N25" t="n">
-        <v>848.2863231807403</v>
+        <v>848.2863231807405</v>
       </c>
       <c r="O25" t="n">
-        <v>1047.203537999763</v>
+        <v>1047.203537999764</v>
       </c>
       <c r="P25" t="n">
-        <v>1193.890897059297</v>
+        <v>1193.890897059298</v>
       </c>
       <c r="Q25" t="n">
         <v>1212.014540911973</v>
@@ -6178,19 +6178,19 @@
         <v>1103.767457551813</v>
       </c>
       <c r="U25" t="n">
-        <v>814.6250545973577</v>
+        <v>975.0921479854525</v>
       </c>
       <c r="V25" t="n">
-        <v>559.9405663914708</v>
+        <v>880.8747531676604</v>
       </c>
       <c r="W25" t="n">
-        <v>430.9904897426051</v>
+        <v>751.9246765187946</v>
       </c>
       <c r="X25" t="n">
-        <v>363.4680322326826</v>
+        <v>684.4022190088721</v>
       </c>
       <c r="Y25" t="n">
-        <v>303.1425464772473</v>
+        <v>624.0767332534368</v>
       </c>
     </row>
     <row r="26">
@@ -6203,58 +6203,58 @@
         <v>1871.021482161256</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979921</v>
+        <v>998.7056540979913</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024321</v>
+        <v>667.9532960024312</v>
       </c>
       <c r="G26" t="n">
         <v>331.498512550831</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946164</v>
+        <v>97.59982789946172</v>
       </c>
       <c r="I26" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J26" t="n">
-        <v>295.4084494248005</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K26" t="n">
-        <v>748.6761524879649</v>
+        <v>748.6761524879651</v>
       </c>
       <c r="L26" t="n">
-        <v>1313.619722771953</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M26" t="n">
-        <v>1569.063554346091</v>
+        <v>1618.715277926195</v>
       </c>
       <c r="N26" t="n">
-        <v>2266.2279977201</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O26" t="n">
-        <v>2879.352974511411</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P26" t="n">
-        <v>3364.966574147586</v>
+        <v>3364.966574147587</v>
       </c>
       <c r="Q26" t="n">
-        <v>3652.420403837663</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T26" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U26" t="n">
         <v>3303.890221605717</v>
@@ -6269,7 +6269,7 @@
         <v>2487.293560813095</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J27" t="n">
-        <v>87.15993001059994</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K27" t="n">
-        <v>450.4135204731351</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L27" t="n">
-        <v>633.125255563786</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M27" t="n">
-        <v>1326.746113743551</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N27" t="n">
-        <v>2054.432065493513</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O27" t="n">
-        <v>2429.968266474535</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6361,49 +6361,49 @@
         <v>565.9737676641312</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302717</v>
+        <v>477.2711314302716</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119834</v>
+        <v>407.3880387119833</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236376</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197749</v>
+        <v>273.0520910197746</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533938</v>
+        <v>184.8579729533934</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4299518091691</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J28" t="n">
-        <v>147.0742273486942</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287832</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312882</v>
       </c>
       <c r="M28" t="n">
         <v>948.1761437746237</v>
       </c>
       <c r="N28" t="n">
-        <v>1259.510224484782</v>
+        <v>1259.510224484783</v>
       </c>
       <c r="O28" t="n">
-        <v>1537.064338418641</v>
+        <v>1537.064338418642</v>
       </c>
       <c r="P28" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R28" t="n">
         <v>1816.961320317191</v>
@@ -6421,13 +6421,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537762</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498063</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003235</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.021482161255</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.292511914891</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D29" t="n">
         <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979913</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024312</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508311</v>
+        <v>331.4985125508314</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946164</v>
+        <v>97.59982789946167</v>
       </c>
       <c r="I29" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J29" t="n">
-        <v>295.4084494248005</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K29" t="n">
-        <v>686.9794859178214</v>
+        <v>748.6761524879651</v>
       </c>
       <c r="L29" t="n">
-        <v>1301.574779781913</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M29" t="n">
         <v>2002.037009513956</v>
       </c>
       <c r="N29" t="n">
-        <v>2266.2279977201</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.352974511411</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P29" t="n">
         <v>3364.966574147586</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837663</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S29" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T29" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U29" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.060880956193</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W29" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X29" t="n">
-        <v>2487.293560813094</v>
+        <v>2487.293560813095</v>
       </c>
       <c r="Y29" t="n">
-        <v>2177.38777553133</v>
+        <v>2177.387775531331</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J30" t="n">
-        <v>87.15993001059994</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K30" t="n">
-        <v>188.5929358306823</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L30" t="n">
-        <v>738.4366127717577</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M30" t="n">
-        <v>971.0094578390231</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N30" t="n">
-        <v>1698.695409588985</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.970212198999</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P30" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.133819173087</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641315</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C31" t="n">
-        <v>477.271131430272</v>
+        <v>477.2711314302716</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119838</v>
+        <v>407.3880387119833</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236382</v>
+        <v>339.7084918236376</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197753</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G31" t="n">
         <v>184.8579729533936</v>
       </c>
       <c r="H31" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091689</v>
       </c>
       <c r="I31" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486942</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K31" t="n">
         <v>347.1622746287835</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312884</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746239</v>
       </c>
       <c r="N31" t="n">
         <v>1259.510224484783</v>
@@ -6640,13 +6640,13 @@
         <v>1762.388596593011</v>
       </c>
       <c r="Q31" t="n">
-        <v>1859.149139560523</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.961320317192</v>
+        <v>1816.961320317191</v>
       </c>
       <c r="S31" t="n">
-        <v>1692.877205246449</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T31" t="n">
         <v>1548.247143568937</v>
@@ -6655,16 +6655,16 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7037224537767</v>
+        <v>955.7037224537762</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498069</v>
+        <v>807.9477182498061</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003237</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.021482161255</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C32" t="n">
-        <v>1582.292511914891</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D32" t="n">
         <v>1304.260360002188</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979913</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F32" t="n">
         <v>667.9532960024317</v>
@@ -6692,43 +6692,43 @@
         <v>331.4985125508315</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946164</v>
+        <v>97.59982789946167</v>
       </c>
       <c r="I32" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J32" t="n">
-        <v>295.4084494248005</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K32" t="n">
-        <v>488.7905923491189</v>
+        <v>748.6761524879651</v>
       </c>
       <c r="L32" t="n">
-        <v>1103.385886213211</v>
+        <v>949.786843947111</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.848115945253</v>
+        <v>1569.063554346092</v>
       </c>
       <c r="N32" t="n">
-        <v>2501.012559319262</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O32" t="n">
-        <v>3114.137536110573</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P32" t="n">
-        <v>3599.751135746748</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.013124683519</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R32" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S32" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U32" t="n">
         <v>3303.890221605717</v>
@@ -6740,7 +6740,7 @@
         <v>2780.525772380127</v>
       </c>
       <c r="X32" t="n">
-        <v>2487.293560813094</v>
+        <v>2487.293560813095</v>
       </c>
       <c r="Y32" t="n">
         <v>2177.38777553133</v>
@@ -6777,25 +6777,25 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J33" t="n">
-        <v>87.15993001059994</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K33" t="n">
-        <v>188.5929358306823</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L33" t="n">
-        <v>555.1565260937555</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M33" t="n">
-        <v>787.7293711610208</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.415322910983</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O33" t="n">
-        <v>2114.690125520997</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P33" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.133819173087</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641311</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302716</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119833</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236376</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F34" t="n">
         <v>273.0520910197748</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533936</v>
+        <v>184.8579729533937</v>
       </c>
       <c r="H34" t="n">
         <v>112.429951809169</v>
@@ -6871,37 +6871,37 @@
         <v>1259.510224484783</v>
       </c>
       <c r="O34" t="n">
-        <v>1537.06433841864</v>
+        <v>1537.064338418641</v>
       </c>
       <c r="P34" t="n">
-        <v>1762.38859659301</v>
+        <v>1762.388596593011</v>
       </c>
       <c r="Q34" t="n">
-        <v>1859.149139560521</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R34" t="n">
-        <v>1816.96132031719</v>
+        <v>1816.961320317191</v>
       </c>
       <c r="S34" t="n">
-        <v>1692.877205246447</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T34" t="n">
-        <v>1548.247143568936</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.338287308528</v>
+        <v>1339.338287308529</v>
       </c>
       <c r="V34" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537758</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498059</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003233</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761029</v>
+        <v>993.0855527761013</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375664</v>
+        <v>754.4098339375648</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076666</v>
+        <v>490.5364629076651</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J35" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K35" t="n">
-        <v>240.7672514645051</v>
+        <v>729.0768589303112</v>
       </c>
       <c r="L35" t="n">
-        <v>855.362545328597</v>
+        <v>930.1875503894572</v>
       </c>
       <c r="M35" t="n">
-        <v>1110.806376902735</v>
+        <v>1185.631381963595</v>
       </c>
       <c r="N35" t="n">
-        <v>1374.99736510888</v>
+        <v>1449.82237016974</v>
       </c>
       <c r="O35" t="n">
-        <v>1988.12234190019</v>
+        <v>1923.981017474577</v>
       </c>
       <c r="P35" t="n">
-        <v>2473.735941536365</v>
+        <v>2409.594617110752</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T35" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459851</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J36" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K36" t="n">
-        <v>555.6443519024861</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L36" t="n">
-        <v>1105.488028843562</v>
+        <v>738.3560869931371</v>
       </c>
       <c r="M36" t="n">
-        <v>1338.060873910827</v>
+        <v>970.9289320604025</v>
       </c>
       <c r="N36" t="n">
-        <v>1591.197875060671</v>
+        <v>1287.839514494839</v>
       </c>
       <c r="O36" t="n">
         <v>1887.114317104853</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.3768636968011</v>
+        <v>253.5459824185219</v>
       </c>
       <c r="C37" t="n">
-        <v>183.553214528602</v>
+        <v>231.7223332503228</v>
       </c>
       <c r="D37" t="n">
-        <v>180.5491088759741</v>
+        <v>228.7182275976949</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80513401530172</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="F37" t="n">
-        <v>80.80513401530172</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458094</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K37" t="n">
         <v>175.39211710127</v>
@@ -7102,10 +7102,10 @@
         <v>386.3342071889391</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174388</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127615</v>
       </c>
       <c r="O37" t="n">
         <v>1050.746584431784</v>
@@ -7123,22 +7123,22 @@
         <v>1158.352459338911</v>
       </c>
       <c r="T37" t="n">
-        <v>933.4888509673522</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U37" t="n">
-        <v>791.4589817726046</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V37" t="n">
-        <v>683.8870273264255</v>
+        <v>830.9995610861332</v>
       </c>
       <c r="W37" t="n">
-        <v>541.5823910491727</v>
+        <v>688.6949248088804</v>
       </c>
       <c r="X37" t="n">
-        <v>460.7053739108631</v>
+        <v>460.705373910863</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.912794767333</v>
+        <v>288.0819134890539</v>
       </c>
     </row>
     <row r="38">
@@ -7154,61 +7154,61 @@
         <v>1204.238717623144</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761016</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375649</v>
+        <v>754.4098339375652</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076652</v>
+        <v>490.5364629076654</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J38" t="n">
-        <v>227.2034062877365</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K38" t="n">
-        <v>680.471109350901</v>
+        <v>729.0768589303112</v>
       </c>
       <c r="L38" t="n">
-        <v>881.5818008100468</v>
+        <v>1343.672152794403</v>
       </c>
       <c r="M38" t="n">
-        <v>1549.101291393252</v>
+        <v>1742.237953017008</v>
       </c>
       <c r="N38" t="n">
-        <v>2216.620781976457</v>
+        <v>2006.428941223153</v>
       </c>
       <c r="O38" t="n">
-        <v>2452.75357931765</v>
+        <v>2242.561738564346</v>
       </c>
       <c r="P38" t="n">
-        <v>2619.786457864057</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.109718285714</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U38" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V38" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W38" t="n">
         <v>2134.956029825738</v>
@@ -7245,28 +7245,28 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459854</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J39" t="n">
-        <v>67.56063645294611</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K39" t="n">
-        <v>430.8142269154813</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L39" t="n">
-        <v>980.6579038565567</v>
+        <v>738.3560869931371</v>
       </c>
       <c r="M39" t="n">
-        <v>1648.177394439762</v>
+        <v>970.9289320604025</v>
       </c>
       <c r="N39" t="n">
-        <v>1993.04135153234</v>
+        <v>1287.839514494839</v>
       </c>
       <c r="O39" t="n">
-        <v>2202.392458058391</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P39" t="n">
         <v>2351.082111521847</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.433448658814</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C40" t="n">
-        <v>84.60979949061493</v>
+        <v>84.60979949061507</v>
       </c>
       <c r="D40" t="n">
-        <v>81.605693837987</v>
+        <v>81.60569383798712</v>
       </c>
       <c r="E40" t="n">
-        <v>80.80513401530169</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="F40" t="n">
-        <v>80.80513401530169</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="G40" t="n">
-        <v>59.49000301458091</v>
+        <v>59.49000301458097</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="K40" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174388</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127615</v>
       </c>
       <c r="O40" t="n">
         <v>1050.746584431784</v>
@@ -7357,25 +7357,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1011.239925579203</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T40" t="n">
-        <v>933.4888509673523</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>692.5155667346176</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V40" t="n">
-        <v>584.9436122884384</v>
+        <v>732.0561460481465</v>
       </c>
       <c r="W40" t="n">
-        <v>295.5264422514778</v>
+        <v>442.6389760111858</v>
       </c>
       <c r="X40" t="n">
-        <v>214.6494251131683</v>
+        <v>214.6494251131685</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.9693797293459</v>
+        <v>140.9693797293461</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C41" t="n">
         <v>1204.238717623145</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761024</v>
+        <v>993.0855527761018</v>
       </c>
       <c r="E41" t="n">
-        <v>754.409833937566</v>
+        <v>754.4098339375654</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076662</v>
+        <v>490.5364629076656</v>
       </c>
       <c r="G41" t="n">
         <v>220.9606665217257</v>
@@ -7409,16 +7409,16 @@
         <v>53.94096893601661</v>
       </c>
       <c r="J41" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K41" t="n">
-        <v>240.7672514645051</v>
+        <v>729.0768589303112</v>
       </c>
       <c r="L41" t="n">
-        <v>441.8779429236509</v>
+        <v>1168.213400353102</v>
       </c>
       <c r="M41" t="n">
-        <v>1020.32872955018</v>
+        <v>1423.65723192724</v>
       </c>
       <c r="N41" t="n">
         <v>1687.848220133385</v>
@@ -7445,13 +7445,13 @@
         <v>2524.562504920008</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336146</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y41" t="n">
         <v>1665.576007108263</v>
@@ -7491,22 +7491,22 @@
         <v>192.3907614399509</v>
       </c>
       <c r="K42" t="n">
-        <v>555.6443519024861</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L42" t="n">
-        <v>738.356086993137</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M42" t="n">
-        <v>970.9289320604023</v>
+        <v>1424.626209428957</v>
       </c>
       <c r="N42" t="n">
-        <v>1638.448422643608</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O42" t="n">
-        <v>2237.723225253622</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P42" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>230.7632291636281</v>
+        <v>400.6585161782298</v>
       </c>
       <c r="C43" t="n">
-        <v>208.9395799954289</v>
+        <v>231.7223332503228</v>
       </c>
       <c r="D43" t="n">
-        <v>205.935474342801</v>
+        <v>81.60569383798712</v>
       </c>
       <c r="E43" t="n">
-        <v>205.1349145201157</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="F43" t="n">
-        <v>205.1349145201157</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="G43" t="n">
-        <v>183.8197835193949</v>
+        <v>59.49000301458097</v>
       </c>
       <c r="H43" t="n">
-        <v>178.2707494408306</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I43" t="n">
-        <v>59.14751343128458</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J43" t="n">
         <v>53.94096893601661</v>
       </c>
       <c r="K43" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M43" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174388</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127615</v>
       </c>
       <c r="O43" t="n">
         <v>1050.746584431784</v>
@@ -7597,22 +7597,22 @@
         <v>1158.352459338911</v>
       </c>
       <c r="T43" t="n">
-        <v>1080.60138472706</v>
+        <v>981.6579696890733</v>
       </c>
       <c r="U43" t="n">
-        <v>938.5715155323126</v>
+        <v>839.6281004943256</v>
       </c>
       <c r="V43" t="n">
-        <v>830.9995610861334</v>
+        <v>732.0561460481465</v>
       </c>
       <c r="W43" t="n">
-        <v>688.6949248088806</v>
+        <v>589.7515097708937</v>
       </c>
       <c r="X43" t="n">
-        <v>486.09173937769</v>
+        <v>508.8744926325841</v>
       </c>
       <c r="Y43" t="n">
-        <v>412.4116939938677</v>
+        <v>435.1944472487617</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
         <v>1204.238717623145</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761016</v>
+        <v>993.0855527761023</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375652</v>
+        <v>754.4098339375657</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076654</v>
+        <v>490.536462907666</v>
       </c>
       <c r="G44" t="n">
         <v>220.9606665217257</v>
@@ -7646,28 +7646,28 @@
         <v>53.94096893601661</v>
       </c>
       <c r="J44" t="n">
-        <v>110.5065034537312</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K44" t="n">
-        <v>563.7742065168957</v>
+        <v>729.0768589303112</v>
       </c>
       <c r="L44" t="n">
-        <v>764.8848979760415</v>
+        <v>1143.620679507246</v>
       </c>
       <c r="M44" t="n">
-        <v>1020.32872955018</v>
+        <v>1399.064511081384</v>
       </c>
       <c r="N44" t="n">
-        <v>1687.848220133385</v>
+        <v>1663.255499287529</v>
       </c>
       <c r="O44" t="n">
-        <v>1923.981017474578</v>
+        <v>1899.388296628722</v>
       </c>
       <c r="P44" t="n">
-        <v>2409.594617110753</v>
+        <v>2385.001896264897</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.04844680083</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R44" t="n">
         <v>2697.04844680083</v>
@@ -7685,10 +7685,10 @@
         <v>2340.612151336145</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y44" t="n">
         <v>1665.576007108263</v>
@@ -7728,22 +7728,22 @@
         <v>192.3907614399509</v>
       </c>
       <c r="K45" t="n">
-        <v>555.6443519024861</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L45" t="n">
-        <v>738.356086993137</v>
+        <v>738.3560869931371</v>
       </c>
       <c r="M45" t="n">
-        <v>970.9289320604023</v>
+        <v>970.9289320604025</v>
       </c>
       <c r="N45" t="n">
-        <v>1638.448422643608</v>
+        <v>1287.839514494839</v>
       </c>
       <c r="O45" t="n">
-        <v>2237.723225253622</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P45" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.534525615434</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>352.4893974565092</v>
+        <v>230.0680315191302</v>
       </c>
       <c r="C46" t="n">
-        <v>330.6657482883101</v>
+        <v>208.2443823509311</v>
       </c>
       <c r="D46" t="n">
-        <v>327.6616426356821</v>
+        <v>205.2402766983031</v>
       </c>
       <c r="E46" t="n">
-        <v>227.6950815132121</v>
+        <v>204.4397168756178</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530172</v>
+        <v>204.4397168756178</v>
       </c>
       <c r="G46" t="n">
-        <v>59.49000301458094</v>
+        <v>183.124585874897</v>
       </c>
       <c r="H46" t="n">
         <v>53.94096893601661</v>
@@ -7807,16 +7807,16 @@
         <v>53.94096893601661</v>
       </c>
       <c r="K46" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M46" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174388</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127615</v>
       </c>
       <c r="O46" t="n">
         <v>1050.746584431784</v>
@@ -7828,28 +7828,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R46" t="n">
-        <v>1215.557587343994</v>
+        <v>1093.136221406615</v>
       </c>
       <c r="S46" t="n">
-        <v>1158.352459338911</v>
+        <v>1035.931093401533</v>
       </c>
       <c r="T46" t="n">
-        <v>1080.60138472706</v>
+        <v>958.1800187896814</v>
       </c>
       <c r="U46" t="n">
-        <v>938.5715155323126</v>
+        <v>669.037615835226</v>
       </c>
       <c r="V46" t="n">
-        <v>683.8870273264257</v>
+        <v>561.4656613890469</v>
       </c>
       <c r="W46" t="n">
-        <v>541.5823910491729</v>
+        <v>419.1610251117941</v>
       </c>
       <c r="X46" t="n">
-        <v>460.7053739108633</v>
+        <v>338.2840079734845</v>
       </c>
       <c r="Y46" t="n">
-        <v>387.025328527041</v>
+        <v>264.6039625896622</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>29.6582226647554</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>325.5939698640777</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>46.81761344986754</v>
+        <v>345.1000650488707</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>152.7902329221845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>372.1522779934581</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>136.3966111758619</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>180.8205403740209</v>
       </c>
       <c r="L14" t="n">
-        <v>24.32318568201808</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>325.5939698640777</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>68.55949349808628</v>
       </c>
       <c r="M15" t="n">
-        <v>348.6959764366765</v>
+        <v>348.6959764366762</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>372.1522779934581</v>
+        <v>372.1522779934579</v>
       </c>
       <c r="P15" t="n">
-        <v>122.5570251254455</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>222.1723312140358</v>
+        <v>205.6616725415523</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>316.7584581145763</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>345.1000650488709</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>89.33136832897429</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>327.9241016057888</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>372.1522779934581</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>136.3966111758619</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>29.65822266475627</v>
+        <v>205.6616725415523</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>345.1000650488709</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>348.6959764366765</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>158.5409800426457</v>
+        <v>188.774187839384</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>17.26270083561553</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>371.9499590028349</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>65.06724726728552</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>104.5538911999612</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>258.8138568312017</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>374.280090744546</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,13 +9878,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>367.5079584089316</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>387.1936682704661</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>87.43973284659558</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>167.8637317726973</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>261.8255473487975</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>387.1936682704655</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>87.43973284659558</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.3313679550868</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>61.63474576424954</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>367.5079584089317</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.7089446186083</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>87.43973284659558</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>240.4301514784284</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.5257740683772</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>64.41775887332571</v>
       </c>
       <c r="O36" t="n">
-        <v>87.43973284659643</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>119.9998984251948</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>416.238039403098</v>
+        <v>144.5676450994614</v>
       </c>
       <c r="N38" t="n">
-        <v>407.4025276535967</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>439.3400459756967</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>92.653490851246</v>
+        <v>64.41775887332571</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.4301514784294</v>
       </c>
       <c r="M41" t="n">
-        <v>326.2696515680713</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>407.402527653597</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>87.43973284659626</v>
       </c>
       <c r="N42" t="n">
-        <v>418.5681711448094</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>174.3896441043028</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.124238996906591</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>215.589019310898</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>407.402527653597</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>418.5681711448094</v>
+        <v>64.41775887332571</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>174.3896441043028</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
         <v>302.4991588451549</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4448345146045</v>
+        <v>190.6195185231578</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173339</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>51.66365555701509</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.3026304363736</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451549</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.590110106877988</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T14" t="n">
-        <v>85.45966118840296</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.8097574903061</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>179.8983226496887</v>
+        <v>179.8983226496905</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>179.89832264969</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24026,13 +24026,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>168.889836015921</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>11.00848663376809</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>784558.9852201868</v>
+        <v>784558.9852201864</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>784558.9852201865</v>
+        <v>784558.9852201868</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873920.7242869573</v>
+        <v>873920.7242869571</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873920.7242869572</v>
+        <v>873920.7242869571</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377789</v>
+        <v>614457.2540377791</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377791</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
-        <v>538020.0932359484</v>
+        <v>538020.0932359486</v>
       </c>
       <c r="F2" t="n">
-        <v>538020.0932359486</v>
+        <v>538020.0932359482</v>
       </c>
       <c r="G2" t="n">
-        <v>605041.3975360261</v>
+        <v>605041.3975360257</v>
       </c>
       <c r="H2" t="n">
         <v>605041.397536026</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="J2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="K2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="N2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.672415043</v>
+        <v>793631.6724150431</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168558</v>
+        <v>63544.96898168552</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776745</v>
+        <v>12327.03098776751</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.1800532311</v>
+        <v>75688.18005323113</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168558</v>
+        <v>63544.96898168552</v>
       </c>
       <c r="M3" t="n">
-        <v>137355.32893797</v>
+        <v>137355.3289379699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,16 +26430,16 @@
         <v>154325.0722680948</v>
       </c>
       <c r="G4" t="n">
-        <v>205135.3026775318</v>
+        <v>205135.3026775317</v>
       </c>
       <c r="H4" t="n">
-        <v>205135.3026775318</v>
+        <v>205135.3026775317</v>
       </c>
       <c r="I4" t="n">
-        <v>210892.2080352273</v>
+        <v>210892.2080352272</v>
       </c>
       <c r="J4" t="n">
-        <v>200854.7344410866</v>
+        <v>200854.7344410865</v>
       </c>
       <c r="K4" t="n">
         <v>200854.7344410866</v>
@@ -26448,7 +26448,7 @@
         <v>200854.7344410866</v>
       </c>
       <c r="M4" t="n">
-        <v>208992.6487667407</v>
+        <v>208992.6487667406</v>
       </c>
       <c r="N4" t="n">
         <v>208992.6487667407</v>
@@ -26482,10 +26482,10 @@
         <v>57243.92344591297</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256463</v>
+        <v>63921.62594256462</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256463</v>
+        <v>63921.62594256462</v>
       </c>
       <c r="I5" t="n">
         <v>66740.07008220107</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139180.4040419585</v>
+        <v>139175.9904640905</v>
       </c>
       <c r="C6" t="n">
-        <v>139180.4040419583</v>
+        <v>139175.9904640904</v>
       </c>
       <c r="D6" t="n">
-        <v>139180.4040419584</v>
+        <v>139175.9904640903</v>
       </c>
       <c r="E6" t="n">
-        <v>-467180.5748931023</v>
+        <v>-467439.7790069765</v>
       </c>
       <c r="F6" t="n">
-        <v>326451.0975219409</v>
+        <v>326191.8934080663</v>
       </c>
       <c r="G6" t="n">
-        <v>272439.4999342441</v>
+        <v>272403.7001680366</v>
       </c>
       <c r="H6" t="n">
-        <v>335984.4689159295</v>
+        <v>335948.6691497223</v>
       </c>
       <c r="I6" t="n">
-        <v>325822.0182930164</v>
+        <v>325822.0182930169</v>
       </c>
       <c r="J6" t="n">
-        <v>261587.8669261928</v>
+        <v>261587.8669261929</v>
       </c>
       <c r="K6" t="n">
-        <v>337276.0469794236</v>
+        <v>337276.0469794243</v>
       </c>
       <c r="L6" t="n">
-        <v>273731.0779977376</v>
+        <v>273731.0779977379</v>
       </c>
       <c r="M6" t="n">
-        <v>201112.04175163</v>
+        <v>201112.0417516302</v>
       </c>
       <c r="N6" t="n">
         <v>338467.3706895998</v>
       </c>
       <c r="O6" t="n">
-        <v>338467.3706895995</v>
+        <v>338467.3706896</v>
       </c>
       <c r="P6" t="n">
-        <v>338467.3706895998</v>
+        <v>338467.3706895999</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542139</v>
@@ -26707,13 +26707,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="K2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="G4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="H4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="I4" t="n">
-        <v>629.9740312999442</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708799</v>
+        <v>919.2532811708801</v>
       </c>
       <c r="K4" t="n">
-        <v>919.2532811708799</v>
+        <v>919.25328117088</v>
       </c>
       <c r="L4" t="n">
-        <v>919.2532811708799</v>
+        <v>919.25328117088</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2621117002074</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2621117002076</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2621117002072</v>
       </c>
       <c r="O4" t="n">
         <v>674.2621117002076</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.3559891387572</v>
+        <v>46.35598913875742</v>
       </c>
       <c r="J4" t="n">
-        <v>289.2792498709357</v>
+        <v>289.2792498709358</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905147</v>
+        <v>338.6268726905143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="12">
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79.43121122710691</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,10 +28181,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H12" t="n">
-        <v>79.43121122710691</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28223,19 +28223,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>25.8490894121677</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>25.84908941216801</v>
       </c>
       <c r="W12" t="n">
-        <v>79.43121122710691</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710676</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>67.1194369106785</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>79.43121122710691</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T15" t="n">
-        <v>79.43121122710691</v>
+        <v>18.08533776941329</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710762</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="17">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>97.51654899652007</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>112.3370082749397</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.7425892056562</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,16 +28734,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,10 +28770,10 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>158.8624224542139</v>
@@ -28785,10 +28785,10 @@
         <v>158.8624224542139</v>
       </c>
       <c r="X19" t="n">
+        <v>97.01511891133191</v>
+      </c>
+      <c r="Y19" t="n">
         <v>158.8624224542139</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28883,19 +28883,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.83433604502177</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>112.3370082749395</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C22" t="n">
-        <v>104.7425892056562</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28980,7 +28980,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,16 +29007,16 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="V22" t="n">
-        <v>158.8624224542139</v>
+        <v>104.7425892056563</v>
       </c>
       <c r="W22" t="n">
         <v>158.8624224542139</v>
@@ -29025,7 +29025,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="23">
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>84.24440044379996</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>84.24440044379892</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29196,28 +29196,28 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>92.31412939801149</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H25" t="n">
         <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
-        <v>117.9320036494506</v>
+        <v>37.94233616196577</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29250,10 +29250,10 @@
         <v>158.8624224542139</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W25" t="n">
         <v>158.8624224542139</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710588</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="35">
@@ -30150,7 +30150,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="E37" t="n">
-        <v>47.68742753450354</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30165,7 +30165,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
         <v>145.6414084221107</v>
@@ -30207,10 +30207,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="X37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>47.68742753450371</v>
       </c>
     </row>
     <row r="38">
@@ -30402,7 +30402,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,22 +30429,22 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T40" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="U40" t="n">
-        <v>47.68742753450348</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V40" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450385</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>145.6414084221107</v>
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="C43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>145.6414084221107</v>
@@ -30636,10 +30636,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,7 +30669,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T43" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450385</v>
       </c>
       <c r="U43" t="n">
         <v>145.6414084221107</v>
@@ -30681,7 +30681,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="X43" t="n">
-        <v>25.13250181215849</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y43" t="n">
         <v>145.6414084221107</v>
@@ -30861,22 +30861,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="E46" t="n">
-        <v>47.46706713532382</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="H46" t="n">
-        <v>145.6414084221107</v>
+        <v>23.24317139039785</v>
       </c>
       <c r="I46" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>145.6414084221107</v>
@@ -30909,10 +30909,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>145.6414084221107</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>145.6414084221107</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I11" t="n">
         <v>107.2257085915656</v>
@@ -31765,7 +31765,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M11" t="n">
         <v>488.370305524382</v>
@@ -31774,10 +31774,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P11" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q11" t="n">
         <v>300.3481029418955</v>
@@ -31786,7 +31786,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
@@ -31835,25 +31835,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J12" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K12" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L12" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M12" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N12" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O12" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P12" t="n">
         <v>284.1659765693366</v>
@@ -31862,16 +31862,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H13" t="n">
         <v>11.09222034755017</v>
@@ -31917,7 +31917,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
@@ -31935,22 +31935,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P13" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q13" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S13" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
@@ -32002,7 +32002,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M14" t="n">
         <v>488.370305524382</v>
@@ -32011,10 +32011,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P14" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q14" t="n">
         <v>300.3481029418955</v>
@@ -32023,7 +32023,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
@@ -32072,25 +32072,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J15" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K15" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L15" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M15" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N15" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P15" t="n">
         <v>284.1659765693366</v>
@@ -32099,16 +32099,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H16" t="n">
         <v>11.09222034755017</v>
@@ -32154,7 +32154,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
@@ -32172,22 +32172,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P16" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q16" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S16" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
@@ -32239,7 +32239,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M17" t="n">
         <v>488.370305524382</v>
@@ -32248,10 +32248,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P17" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q17" t="n">
         <v>300.3481029418955</v>
@@ -32260,7 +32260,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
@@ -32309,25 +32309,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J18" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K18" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L18" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M18" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N18" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O18" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P18" t="n">
         <v>284.1659765693366</v>
@@ -32336,16 +32336,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H19" t="n">
         <v>11.09222034755017</v>
@@ -32391,7 +32391,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
@@ -32409,22 +32409,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P19" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q19" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S19" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
@@ -32476,7 +32476,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M20" t="n">
         <v>488.370305524382</v>
@@ -32485,10 +32485,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q20" t="n">
         <v>300.3481029418955</v>
@@ -32497,7 +32497,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
@@ -32546,25 +32546,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J21" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K21" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L21" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M21" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O21" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P21" t="n">
         <v>284.1659765693366</v>
@@ -32573,16 +32573,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H22" t="n">
         <v>11.09222034755017</v>
@@ -32628,7 +32628,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
@@ -32646,22 +32646,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P22" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q22" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S22" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
@@ -32713,7 +32713,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M23" t="n">
         <v>488.370305524382</v>
@@ -32722,10 +32722,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P23" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q23" t="n">
         <v>300.3481029418955</v>
@@ -32734,7 +32734,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
@@ -32783,25 +32783,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J24" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K24" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L24" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M24" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N24" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O24" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P24" t="n">
         <v>284.1659765693366</v>
@@ -32810,16 +32810,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H25" t="n">
         <v>11.09222034755017</v>
@@ -32865,7 +32865,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
@@ -32883,22 +32883,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P25" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q25" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S25" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I26" t="n">
         <v>107.2257085915656</v>
@@ -32950,7 +32950,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M26" t="n">
         <v>488.370305524382</v>
@@ -32959,10 +32959,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q26" t="n">
         <v>300.3481029418955</v>
@@ -32971,7 +32971,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
@@ -33020,25 +33020,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J27" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K27" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P27" t="n">
         <v>284.1659765693366</v>
@@ -33047,16 +33047,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S27" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T27" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H28" t="n">
         <v>11.09222034755017</v>
@@ -33102,7 +33102,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J28" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K28" t="n">
         <v>144.9474192655328</v>
@@ -33120,22 +33120,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q28" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S28" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
@@ -33187,7 +33187,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M29" t="n">
         <v>488.370305524382</v>
@@ -33196,10 +33196,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P29" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q29" t="n">
         <v>300.3481029418955</v>
@@ -33208,7 +33208,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
@@ -33257,25 +33257,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J30" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K30" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L30" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N30" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O30" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P30" t="n">
         <v>284.1659765693366</v>
@@ -33284,16 +33284,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S30" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T30" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H31" t="n">
         <v>11.09222034755017</v>
@@ -33339,7 +33339,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J31" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
@@ -33357,22 +33357,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P31" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q31" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S31" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
@@ -33424,7 +33424,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M32" t="n">
         <v>488.370305524382</v>
@@ -33433,10 +33433,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P32" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q32" t="n">
         <v>300.3481029418955</v>
@@ -33445,7 +33445,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
@@ -33494,25 +33494,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J33" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K33" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L33" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N33" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O33" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P33" t="n">
         <v>284.1659765693366</v>
@@ -33521,16 +33521,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H34" t="n">
         <v>11.09222034755017</v>
@@ -33576,7 +33576,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
@@ -33594,22 +33594,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P34" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q34" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S34" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
@@ -33661,7 +33661,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M35" t="n">
         <v>488.370305524382</v>
@@ -33670,10 +33670,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P35" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q35" t="n">
         <v>300.3481029418955</v>
@@ -33682,7 +33682,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
@@ -33731,25 +33731,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J36" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K36" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L36" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M36" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N36" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O36" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P36" t="n">
         <v>284.1659765693366</v>
@@ -33758,16 +33758,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H37" t="n">
         <v>11.09222034755017</v>
@@ -33813,7 +33813,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
@@ -33831,22 +33831,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P37" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q37" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S37" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
@@ -33898,7 +33898,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M38" t="n">
         <v>488.370305524382</v>
@@ -33907,10 +33907,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P38" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q38" t="n">
         <v>300.3481029418955</v>
@@ -33919,7 +33919,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
@@ -33968,25 +33968,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J39" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K39" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L39" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M39" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N39" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O39" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P39" t="n">
         <v>284.1659765693366</v>
@@ -33995,16 +33995,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H40" t="n">
         <v>11.09222034755017</v>
@@ -34050,7 +34050,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
@@ -34068,22 +34068,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P40" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q40" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S40" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H41" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I41" t="n">
         <v>107.2257085915656</v>
@@ -34135,7 +34135,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M41" t="n">
         <v>488.370305524382</v>
@@ -34144,10 +34144,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P41" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q41" t="n">
         <v>300.3481029418955</v>
@@ -34156,7 +34156,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
@@ -34205,25 +34205,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I42" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J42" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K42" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L42" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M42" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N42" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O42" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P42" t="n">
         <v>284.1659765693366</v>
@@ -34232,16 +34232,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S42" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H43" t="n">
         <v>11.09222034755017</v>
@@ -34287,7 +34287,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
@@ -34305,22 +34305,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P43" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q43" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S43" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H44" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I44" t="n">
         <v>107.2257085915656</v>
@@ -34372,7 +34372,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M44" t="n">
         <v>488.370305524382</v>
@@ -34381,10 +34381,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P44" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q44" t="n">
         <v>300.3481029418955</v>
@@ -34393,7 +34393,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
@@ -34442,25 +34442,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I45" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J45" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K45" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L45" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M45" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N45" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O45" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P45" t="n">
         <v>284.1659765693366</v>
@@ -34469,16 +34469,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S45" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H46" t="n">
         <v>11.09222034755017</v>
@@ -34524,7 +34524,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
@@ -34542,22 +34542,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P46" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q46" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S46" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.0126645563405</v>
+        <v>84.67088722109592</v>
       </c>
       <c r="K11" t="n">
-        <v>457.8461647102671</v>
+        <v>133.7007521391025</v>
       </c>
       <c r="L11" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M11" t="n">
-        <v>583.618042161187</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N11" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O11" t="n">
-        <v>285.3355905621836</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="P11" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q11" t="n">
         <v>290.3574037273507</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L12" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M12" t="n">
-        <v>387.712298646695</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O12" t="n">
-        <v>583.618042161187</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P12" t="n">
-        <v>468.6543377949436</v>
+        <v>286.5881803308683</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679163</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K13" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M13" t="n">
-        <v>314.58068681145</v>
+        <v>314.5806868114501</v>
       </c>
       <c r="N13" t="n">
         <v>314.4788694042006</v>
       </c>
       <c r="O13" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422814</v>
       </c>
       <c r="P13" t="n">
-        <v>227.6002607821919</v>
+        <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940493</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7007521391024</v>
+        <v>314.5212925131233</v>
       </c>
       <c r="L14" t="n">
-        <v>227.4652982670139</v>
+        <v>203.1421125849959</v>
       </c>
       <c r="M14" t="n">
-        <v>583.618042161187</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N14" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P14" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q14" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R14" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.75723991609044</v>
+        <v>13.75723991609047</v>
       </c>
       <c r="K15" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L15" t="n">
-        <v>184.5573081723746</v>
+        <v>253.116801670461</v>
       </c>
       <c r="M15" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N15" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O15" t="n">
-        <v>583.618042161187</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="P15" t="n">
-        <v>272.7485942804519</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.97565579302605</v>
+        <v>49.97565579302608</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679163</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K16" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M16" t="n">
-        <v>314.58068681145</v>
+        <v>314.5806868114501</v>
       </c>
       <c r="N16" t="n">
         <v>314.4788694042006</v>
@@ -35820,10 +35820,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P16" t="n">
-        <v>227.6002607821919</v>
+        <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940564</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K17" t="n">
-        <v>355.8730833531382</v>
+        <v>339.3624246806547</v>
       </c>
       <c r="L17" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M17" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N17" t="n">
-        <v>583.618042161187</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O17" t="n">
-        <v>583.618042161187</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P17" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273507</v>
       </c>
       <c r="R17" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K18" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L18" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M18" t="n">
-        <v>324.2534340534848</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N18" t="n">
-        <v>583.618042161187</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O18" t="n">
-        <v>583.618042161187</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P18" t="n">
-        <v>468.6543377949436</v>
+        <v>286.5881803308683</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,10 +36057,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P19" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K20" t="n">
-        <v>163.3589748038587</v>
+        <v>339.3624246806547</v>
       </c>
       <c r="L20" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M20" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N20" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O20" t="n">
-        <v>583.618042161187</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P20" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q20" t="n">
         <v>290.3574037273507</v>
@@ -36200,22 +36200,22 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K21" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L21" t="n">
-        <v>184.5573081723746</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M21" t="n">
-        <v>583.618042161187</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N21" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O21" t="n">
-        <v>370.0067442103746</v>
+        <v>400.2399520071129</v>
       </c>
       <c r="P21" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q21" t="n">
         <v>260.0529435288752</v>
@@ -36294,10 +36294,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P22" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L23" t="n">
-        <v>220.4048134206114</v>
+        <v>203.1421125849959</v>
       </c>
       <c r="M23" t="n">
-        <v>629.9740312999442</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N23" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O23" t="n">
-        <v>238.5179771123161</v>
+        <v>303.5852243796017</v>
       </c>
       <c r="P23" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q23" t="n">
         <v>290.3574037273507</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.75723991609044</v>
+        <v>118.3111311160516</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L24" t="n">
-        <v>184.5573081723746</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M24" t="n">
-        <v>493.7359225557122</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N24" t="n">
-        <v>629.9740312999442</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O24" t="n">
-        <v>605.3280834444583</v>
+        <v>605.3280834444585</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36531,10 +36531,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P25" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L26" t="n">
-        <v>570.6500709939274</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M26" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585947</v>
+        <v>654.0532523170767</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P26" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q26" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R26" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K27" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L27" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6271294745104</v>
+        <v>322.3617985711061</v>
       </c>
       <c r="N27" t="n">
-        <v>735.0363148989517</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O27" t="n">
-        <v>379.3294959404262</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K28" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L28" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M28" t="n">
         <v>314.5806868114501</v>
@@ -36771,7 +36771,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K29" t="n">
-        <v>395.5262994878999</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L29" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899417</v>
+        <v>645.2177405675749</v>
       </c>
       <c r="N29" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P29" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q29" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R29" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K30" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3976534758337</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M30" t="n">
-        <v>234.9220657245105</v>
+        <v>322.3617985711061</v>
       </c>
       <c r="N30" t="n">
-        <v>735.0363148989517</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O30" t="n">
-        <v>605.3280834444583</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P30" t="n">
-        <v>283.5229371100932</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K31" t="n">
         <v>202.1091386667569</v>
@@ -37008,7 +37008,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K32" t="n">
-        <v>195.3354979033519</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L32" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849959</v>
       </c>
       <c r="M32" t="n">
-        <v>707.5376057899417</v>
+        <v>625.532030706041</v>
       </c>
       <c r="N32" t="n">
         <v>704.2065084585947</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P32" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273507</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K33" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L33" t="n">
-        <v>370.2662527909829</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9220657245105</v>
+        <v>322.3617985711061</v>
       </c>
       <c r="N33" t="n">
-        <v>735.0363148989517</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O33" t="n">
-        <v>605.3280834444583</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P33" t="n">
         <v>468.6543377949436</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K34" t="n">
         <v>202.1091386667569</v>
@@ -37239,13 +37239,13 @@
         <v>314.4788694042006</v>
       </c>
       <c r="O34" t="n">
-        <v>280.3576908422805</v>
+        <v>280.3576908422816</v>
       </c>
       <c r="P34" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K35" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L35" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849959</v>
       </c>
       <c r="M35" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N35" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O35" t="n">
-        <v>619.3181583750614</v>
+        <v>478.9481285907446</v>
       </c>
       <c r="P35" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q35" t="n">
-        <v>225.5681871358233</v>
+        <v>290.3574037273507</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K36" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M36" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N36" t="n">
-        <v>255.6939405553981</v>
+        <v>320.111699428724</v>
       </c>
       <c r="O36" t="n">
-        <v>298.9054970143253</v>
+        <v>605.3280834444585</v>
       </c>
       <c r="P36" t="n">
         <v>468.6543377949436</v>
@@ -37479,10 +37479,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P37" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.0125629815353</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K38" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L38" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M38" t="n">
-        <v>674.2621117002072</v>
+        <v>402.5917173965707</v>
       </c>
       <c r="N38" t="n">
-        <v>674.2621117002072</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O38" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P38" t="n">
         <v>168.7200793398052</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273507</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K39" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M39" t="n">
-        <v>674.2621117002072</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N39" t="n">
-        <v>348.3474314066441</v>
+        <v>320.111699428724</v>
       </c>
       <c r="O39" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444585</v>
       </c>
       <c r="P39" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q39" t="n">
         <v>260.0529435288752</v>
@@ -37716,10 +37716,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P40" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K41" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L41" t="n">
-        <v>203.1421125849959</v>
+        <v>443.5722640634253</v>
       </c>
       <c r="M41" t="n">
-        <v>584.2937238651805</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N41" t="n">
-        <v>674.2621117002076</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O41" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P41" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q41" t="n">
         <v>290.3574037273507</v>
@@ -37859,25 +37859,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K42" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L42" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M42" t="n">
-        <v>234.9220657245105</v>
+        <v>322.3617985711068</v>
       </c>
       <c r="N42" t="n">
-        <v>674.2621117002076</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O42" t="n">
-        <v>605.3280834444583</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P42" t="n">
-        <v>324.5812132593092</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P43" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>57.13690355324709</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K44" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L44" t="n">
-        <v>203.1421125849959</v>
+        <v>418.731131895894</v>
       </c>
       <c r="M44" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2621117002076</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P44" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q44" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K45" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L45" t="n">
-        <v>184.5573081723746</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M45" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N45" t="n">
-        <v>674.2621117002076</v>
+        <v>320.111699428724</v>
       </c>
       <c r="O45" t="n">
-        <v>605.3280834444583</v>
+        <v>605.3280834444585</v>
       </c>
       <c r="P45" t="n">
-        <v>324.5812132593092</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P46" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
